--- a/mars/checklist.xlsx
+++ b/mars/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ADF7738-5DBC-514F-A83A-6AA3E1ECE4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F6ECF9-4273-B742-BA9D-42878E6676EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{100DEB1A-3835-0C40-A73C-B092AA88D0B1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -72,10 +72,10 @@
     <t>1st_edition.jpg</t>
   </si>
   <si>
-    <t>2nd_editino.jpg</t>
-  </si>
-  <si>
     <t>rulebook</t>
+  </si>
+  <si>
+    <t>2nd_edition.jpg</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +486,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -503,10 +503,10 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
